--- a/Map tijdelijke documenten/constrance model.xlsx
+++ b/Map tijdelijke documenten/constrance model.xlsx
@@ -86,9 +86,6 @@
     <t>accuracy</t>
   </si>
   <si>
-    <t>grote duidelijke knopen voor de hoofd taken</t>
-  </si>
-  <si>
     <t>UI navigatie</t>
   </si>
   <si>
@@ -128,15 +125,9 @@
     </r>
   </si>
   <si>
-    <t>door te testen wat voor data er terug word gestuurd na er een van te voren vastgesteld % in word gedaan</t>
-  </si>
-  <si>
     <t>door mensen buiten het development team te laten testen</t>
   </si>
   <si>
-    <t>hoe vaak moet de gebruiker klikken om was programma te starten</t>
-  </si>
-  <si>
     <t>testen hoeveel acties er nodig zijn om een was te starten</t>
   </si>
   <si>
@@ -168,6 +159,15 @@
   </si>
   <si>
     <t>door "Play tests" te doen en te kijken hoe veel moeite de gebruikers hebben</t>
+  </si>
+  <si>
+    <t>grote duidelijke knopen voor de hoofdtaken</t>
+  </si>
+  <si>
+    <t>hoe vaak moet de gebruiker klikken om een wasprogramma te starten</t>
+  </si>
+  <si>
+    <t>door de sensor uit te lezen nadat er een bepaalde afgemeten hoeveelheid water in de trommel wordt gedaan.</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -720,13 +720,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -737,13 +737,13 @@
         <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -757,10 +757,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -768,16 +768,16 @@
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>7</v>
@@ -794,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -805,13 +805,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -822,13 +822,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -839,13 +839,13 @@
         <v>19</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
